--- a/STM32F303RC-pin-map.xlsx
+++ b/STM32F303RC-pin-map.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GitWorkSpace\WeightModeGit\mcu_firmware\WeightMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F65EEF-2D6E-4E76-9CEA-80AAF64770B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBDB0DF-8E86-4344-8B62-47E4C207D8DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STM32F303RCT6-PIN-MAP" sheetId="1" r:id="rId1"/>
+    <sheet name="303&amp;107" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="STM32F303RCT6-PIN-MAP" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="136">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +413,148 @@
   </si>
   <si>
     <t>密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107管脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303管脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HX711_2_DATA</t>
+  </si>
+  <si>
+    <t>HX711_2_CLK</t>
+  </si>
+  <si>
+    <t>HX711_3_DATA</t>
+  </si>
+  <si>
+    <t>HX711_3_CLK</t>
+  </si>
+  <si>
+    <t>HX711_4_DATA</t>
+  </si>
+  <si>
+    <t>HX711_4_CLK</t>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_SOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_VBUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HX711_6_DATA</t>
+  </si>
+  <si>
+    <t>HX711_6_CLK</t>
+  </si>
+  <si>
+    <t>HX711_7_DATA</t>
+  </si>
+  <si>
+    <t>HX711_7_CLK</t>
+  </si>
+  <si>
+    <t>DATA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLK2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLK3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLK4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,12 +592,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -492,19 +642,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +678,148 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>710980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358759</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F0233E-4D80-4347-A3F3-BD5E12EA193B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4681000" y="129540"/>
+          <a:ext cx="5484698" cy="3502382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>448494</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B13F53-0C61-4281-BB60-551CA779B67B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424160" y="213361"/>
+          <a:ext cx="5325294" cy="3749040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>354805</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CB0FB4-6BCE-4723-A08C-4E984FC720A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="701040"/>
+          <a:ext cx="5231605" cy="3579270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -887,12 +1180,1283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C30FA2D-D178-4984-81BD-DB4D969714C8}">
+  <dimension ref="A1:Q65"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="I25:Q25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1444E-6447-4093-8F84-0C191CC426B8}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -908,16 +2472,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -925,82 +2489,82 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1008,104 +2572,104 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1113,16 +2677,16 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1130,38 +2694,38 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1169,114 +2733,114 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3">
+      <c r="F23" s="6"/>
+      <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3">
+      <c r="F24" s="6"/>
+      <c r="G24" s="2">
         <v>3</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1285,29 +2849,29 @@
       <c r="F25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1315,16 +2879,16 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1332,16 +2896,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1349,68 +2913,68 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1418,16 +2982,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1435,16 +2999,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1452,16 +3016,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1469,16 +3033,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1486,16 +3050,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1503,40 +3067,40 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -1544,16 +3108,16 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1561,44 +3125,44 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -1606,44 +3170,44 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -1651,48 +3215,48 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -1700,16 +3264,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -1717,16 +3281,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -1734,16 +3298,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -1751,16 +3315,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -1768,16 +3332,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -1785,16 +3349,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -1802,16 +3366,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -1819,16 +3383,16 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -1836,35 +3400,35 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="3" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3lP0h/GJhFKwQQ2JBDR/B8QFRs6NUq16wSzR5eUAtejz43nI5fx0fwq5ZoRFMr8ZrBEy7ShMRu+7N5Io693Mvw==" saltValue="fgMtZ8YXdVtVUdj/Rbsbbg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jNUbPhptpyvjL41bkuJK6mOKv05e2UBb224KqpUjs3yNUJ4qps4btC8c81LpiP4Lq3rMity1Or69CNAAPBjWEQ==" saltValue="BoeGDarVYDt7ZhXiHQKLIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="H22:P22"/>
